--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_2_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570816.274742363</v>
+        <v>1755838.224910043</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631045</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809152</v>
+        <v>393801.3664809169</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7028028.025710228</v>
+        <v>7069054.15406232</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -674,7 +674,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>90.31042124873132</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.76484596498756</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>28.11631013281968</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>28.11631013281968</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>28.11631013281968</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.11631013281968</v>
+        <v>160.721371293247</v>
       </c>
       <c r="E4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>292.9082206543456</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>292.9082206543456</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>243.9446297899269</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>311.6235970459965</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>68.63934581982296</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
@@ -984,7 +984,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
@@ -1029,10 +1029,10 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -1060,19 +1060,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.32556988066135</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.23868967003107</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>22.1746649971669</v>
+        <v>244.7387203345617</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1303,10 +1303,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>120.0693374786932</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>185.6639995239516</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459097</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>198.2930851145996</v>
       </c>
       <c r="U13" t="n">
-        <v>215.9733000360333</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>28.12784522629521</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.48011262115469</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>190.749278245723</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.3520479641036</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.8550050462798</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>14.12442881973632</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.71803126805922</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>161.6737988100373</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.6700366484901</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>214.1799855389167</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>174.6903612842254</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,10 +2713,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,13 +2767,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>33.77440867765345</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188593</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>121.2482518332246</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3016,7 +3016,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>85.49670272579471</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523053</v>
+        <v>178.1668213893229</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542511</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160353</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475631</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>132.2608181713051</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448715</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>36.47073954407651</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>97.76241716546639</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607369</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790767</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.7968650824293</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.00639215359</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530309</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>213.9818529915333</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6210704138062</v>
+        <v>364.6210704138061</v>
       </c>
       <c r="H35" t="n">
         <v>259.2150933680659</v>
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448726</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>134.5782361172335</v>
       </c>
       <c r="D40" t="n">
-        <v>126.0090037718574</v>
+        <v>126.009003771858</v>
       </c>
       <c r="E40" t="n">
         <v>128.8715224160353</v>
@@ -3904,13 +3904,13 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160356</v>
       </c>
       <c r="F43" t="n">
         <v>134.4685551105455</v>
       </c>
       <c r="G43" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H43" t="n">
         <v>106.6837044342875</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>379.9752792759747</v>
+        <v>379.9752792759751</v>
       </c>
       <c r="C44" t="n">
         <v>386.9571213141932</v>
@@ -4037,7 +4037,7 @@
         <v>318.2399193523734</v>
       </c>
       <c r="W44" t="n">
-        <v>356.7528348300169</v>
+        <v>356.7528348300162</v>
       </c>
       <c r="X44" t="n">
         <v>371.9281974712906</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>828.5932031585962</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>401.6924731718963</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>382.4402563973006</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>360.5037205855622</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>339.4199428153665</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>339.1212844452192</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625574</v>
+        <v>551.7576166700229</v>
       </c>
       <c r="L2" t="n">
-        <v>28.95979943680427</v>
+        <v>551.7576166700229</v>
       </c>
       <c r="M2" t="n">
-        <v>56.79494646829576</v>
+        <v>551.7576166700229</v>
       </c>
       <c r="N2" t="n">
-        <v>56.79494646829576</v>
+        <v>585.5503949569818</v>
       </c>
       <c r="O2" t="n">
-        <v>84.63009349978725</v>
+        <v>1096.055105707751</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>1606.55981645852</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835843</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1737.352430880476</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1737.352430880476</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1737.352430880476</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1340.961081180823</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1249.738433454832</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>1248.441567450126</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.04993134157444</v>
+        <v>608.3763969507092</v>
       </c>
       <c r="C3" t="n">
-        <v>59.04993134157444</v>
+        <v>490.870493468214</v>
       </c>
       <c r="D3" t="n">
-        <v>30.6496180761</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6496180761</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>30.6496180761</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6496180761</v>
+        <v>94.62899915694447</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>48.6995488811659</v>
       </c>
       <c r="J3" t="n">
-        <v>9.695947772537416</v>
+        <v>48.6995488811659</v>
       </c>
       <c r="K3" t="n">
-        <v>9.695947772537416</v>
+        <v>48.6995488811659</v>
       </c>
       <c r="L3" t="n">
-        <v>9.695947772537416</v>
+        <v>318.426404247457</v>
       </c>
       <c r="M3" t="n">
-        <v>37.5310948040289</v>
+        <v>828.9311149982259</v>
       </c>
       <c r="N3" t="n">
-        <v>37.5310948040289</v>
+        <v>1339.435825748995</v>
       </c>
       <c r="O3" t="n">
-        <v>56.79494646829576</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061018</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>112.4652405312787</v>
+        <v>1236.995018417599</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>876.9962950174796</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>737.303406370772</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>513.6509636049958</v>
       </c>
       <c r="C4" t="n">
-        <v>55.66461400032987</v>
+        <v>513.6509636049958</v>
       </c>
       <c r="D4" t="n">
-        <v>27.26430073485544</v>
+        <v>351.3061441168675</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>351.3061441168675</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>351.3061441168675</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="J4" t="n">
-        <v>30.08445184211706</v>
+        <v>98.74423414341207</v>
       </c>
       <c r="K4" t="n">
-        <v>57.91959887360855</v>
+        <v>166.251197979569</v>
       </c>
       <c r="L4" t="n">
-        <v>57.91959887360855</v>
+        <v>520.9405192739898</v>
       </c>
       <c r="M4" t="n">
-        <v>57.91959887360855</v>
+        <v>912.1263142442406</v>
       </c>
       <c r="N4" t="n">
-        <v>84.63009349978725</v>
+        <v>1289.617825120276</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4652405312787</v>
+        <v>1645.04595380004</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>1935.645165721941</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>1819.305948188603</v>
       </c>
       <c r="U4" t="n">
-        <v>84.0649272658043</v>
+        <v>1539.121499688907</v>
       </c>
       <c r="V4" t="n">
-        <v>84.0649272658043</v>
+        <v>1257.410032296936</v>
       </c>
       <c r="W4" t="n">
-        <v>84.0649272658043</v>
+        <v>982.5576284694487</v>
       </c>
       <c r="X4" t="n">
-        <v>84.0649272658043</v>
+        <v>739.9937319152538</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>513.6509636049958</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>679.514173654813</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>656.6538477085172</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>637.4016309339215</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>615.4650951221831</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>319.5982055723391</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>319.2995472021917</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>23.43265765234765</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234765</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>23.43265765234765</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>23.43265765234765</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>313.4117961001498</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>313.4117961001498</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>591.6746057217781</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>881.6537441695802</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>881.6537441695802</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1171.632882617382</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617382</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.632882617382</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>950.7073116620155</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>950.7073116620155</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>704.2985947024933</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>704.2985947024933</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>696.6189999106447</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>695.322133905939</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>448.7370874294876</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>379.4044148842119</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>275.5644563994969</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>170.8625226724341</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.8625226724341</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003806</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234765</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>30.87930061425949</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>30.87930061425949</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>320.8584390620616</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>610.8375775098638</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>610.8375775098638</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>610.8375775098638</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>610.8375775098638</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>900.8167159576659</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532679</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617382</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1090.308635178637</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>948.4286994763152</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>948.4286994763152</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>948.4286994763152</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>751.9073223095323</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>588.4299760761952</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>448.7370874294876</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>691.1871691995752</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C7" t="n">
-        <v>519.2146060784912</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D7" t="n">
-        <v>355.8978332052619</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E7" t="n">
-        <v>189.6896273581155</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>189.6896273581155</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>23.43265765234765</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234765</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234765</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43265765234765</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>23.43265765234765</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>313.4117961001498</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>313.4117961001498</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>464.6744754810161</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>754.6536139288182</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.63275237662</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617382</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1171.632882617382</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1171.632882617382</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="T7" t="n">
-        <v>1171.632882617382</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="U7" t="n">
-        <v>1171.632882617382</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V7" t="n">
-        <v>1171.632882617382</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W7" t="n">
-        <v>1171.632882617382</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X7" t="n">
-        <v>929.0689860631875</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.3531379116409</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>526.3839111742037</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>503.5235852279079</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1407.269712569019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1366.319142682382</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>969.9277929827292</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X8" t="n">
-        <v>947.5291414704394</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y8" t="n">
-        <v>946.2322754657338</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K9" t="n">
-        <v>475.2419029331441</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>932.027809635875</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>1845.599623041337</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>717.8575411161469</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D10" t="n">
-        <v>576.385249643018</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>238.315269570432</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>72.05829986466412</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.782578520152</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>1376.930174692665</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>1134.366278138471</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>908.0235098282126</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878311</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2092.010204276044</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>2274.717449699197</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N11" t="n">
-        <v>3250.968508185897</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O11" t="n">
-        <v>4096.11315833671</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P11" t="n">
-        <v>4096.11315833671</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>4096.11315833671</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4144.199070348282</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3920.741032201223</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3598.148488584001</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3410.609095125464</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3033.78596754974</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>84.27338986437223</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L12" t="n">
-        <v>84.27338986437223</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M12" t="n">
-        <v>84.27338986437223</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N12" t="n">
-        <v>84.27338986437223</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O12" t="n">
-        <v>712.6178265436047</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1428.815543582103</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.1764135929076</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="C13" t="n">
-        <v>786.1007217283524</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D13" t="n">
-        <v>657.6808201116519</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E13" t="n">
-        <v>526.3694855210342</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4045825521234</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369393</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627486</v>
+        <v>1912.284647767789</v>
       </c>
       <c r="U13" t="n">
-        <v>1964.32856210624</v>
+        <v>1632.100199268094</v>
       </c>
       <c r="V13" t="n">
-        <v>1717.513965970798</v>
+        <v>1350.388731876122</v>
       </c>
       <c r="W13" t="n">
-        <v>1477.558433399839</v>
+        <v>1075.536328048635</v>
       </c>
       <c r="X13" t="n">
-        <v>1269.891408102174</v>
+        <v>832.9724314944403</v>
       </c>
       <c r="Y13" t="n">
-        <v>1078.445511048444</v>
+        <v>606.6296631841824</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1918.410291042732</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1526.406432312561</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L14" t="n">
-        <v>679.7084040041129</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M14" t="n">
-        <v>1683.994505423171</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N14" t="n">
-        <v>2660.245563909872</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>3505.390214060684</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>4213.669493218612</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.361784077733</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>84.27338986437223</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L15" t="n">
-        <v>84.27338986437223</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M15" t="n">
-        <v>84.27338986437223</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N15" t="n">
-        <v>84.27338986437223</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O15" t="n">
-        <v>630.5985164589015</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1346.796233497399</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.1764135929075</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283523</v>
+        <v>869.7150043171357</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116517</v>
+        <v>706.3982314439064</v>
       </c>
       <c r="E16" t="n">
-        <v>526.369485521034</v>
+        <v>540.1900255967599</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521232</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028842</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675674</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443595</v>
+        <v>741.0109641302449</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2538.305805425692</v>
+        <v>2235.76613211072</v>
       </c>
       <c r="S16" t="n">
-        <v>2403.067629201356</v>
+        <v>2065.631084629855</v>
       </c>
       <c r="T16" t="n">
-        <v>2194.625152683785</v>
+        <v>2065.631084629855</v>
       </c>
       <c r="U16" t="n">
-        <v>1949.337575440618</v>
+        <v>1785.44663613016</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.522979305175</v>
+        <v>1785.44663613016</v>
       </c>
       <c r="W16" t="n">
-        <v>1462.567446734217</v>
+        <v>1510.594232302672</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.891408102174</v>
+        <v>1268.030335748478</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.445511048445</v>
+        <v>1041.68756743822</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2278.394075726157</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2092.010204276044</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>3096.296305695102</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>4072.547364181803</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4213.669493218612</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.669493218612</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1127.156589435979</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O18" t="n">
-        <v>1892.961020444882</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1892.961020444882</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.1764135929075</v>
+        <v>789.9291292906433</v>
       </c>
       <c r="C19" t="n">
-        <v>786.1007217283524</v>
+        <v>617.9565661695593</v>
       </c>
       <c r="D19" t="n">
-        <v>657.6808201116519</v>
+        <v>454.63979329633</v>
       </c>
       <c r="E19" t="n">
-        <v>526.3694855210342</v>
+        <v>288.4315874491836</v>
       </c>
       <c r="F19" t="n">
-        <v>389.4045825521234</v>
+        <v>116.569813223744</v>
       </c>
       <c r="G19" t="n">
-        <v>258.0444841028843</v>
+        <v>116.569813223744</v>
       </c>
       <c r="H19" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443595</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425693</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369395</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145058</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627487</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.19583338432</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248878</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677919</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380253</v>
+        <v>789.9291292906433</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326524</v>
+        <v>789.9291292906433</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>799.7816978398713</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1729.406745459148</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M20" t="n">
-        <v>1729.406745459148</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N20" t="n">
-        <v>2660.245563909872</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>3505.390214060684</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4213.669493218612</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2303.361784077732</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>921.0721979472784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1892.961020444882</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1892.961020444882</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1892.961020444882</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1892.961020444882</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.1764135929076</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>786.1007217283523</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D22" t="n">
-        <v>657.6808201116517</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E22" t="n">
-        <v>526.369485521034</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521233</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675675</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443595</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145058</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.483410627487</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.195833384319</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="V22" t="n">
-        <v>1690.381237248877</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.425704677919</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X22" t="n">
-        <v>1242.758679380253</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.445511048445</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057894</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208707</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366634</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>810.9926818226943</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>930.5230214435896</v>
+        <v>712.1138248592226</v>
       </c>
       <c r="C25" t="n">
-        <v>793.4473295790344</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="D25" t="n">
-        <v>665.0274279623339</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E25" t="n">
-        <v>533.7160933717162</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028054</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535663</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9355189950418</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2410.414237052038</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2201.971760534466</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.684183291299</v>
+        <v>1652.897925827712</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.869587155857</v>
+        <v>1371.186458435741</v>
       </c>
       <c r="W25" t="n">
-        <v>1469.914054584899</v>
+        <v>1371.186458435741</v>
       </c>
       <c r="X25" t="n">
-        <v>1262.247029287233</v>
+        <v>1128.622561881546</v>
       </c>
       <c r="Y25" t="n">
-        <v>1085.792118899127</v>
+        <v>902.2797935712883</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,31 +6300,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>999.230634379212</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.303066961835</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>847.303066961835</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058286</v>
@@ -6406,28 +6406,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251187</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1788.087167930325</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1506.375700538353</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1506.375700538353</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1263.811803984159</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1037.469035673901</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6467,10 +6467,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
         <v>2988.069926596602</v>
@@ -6537,28 +6537,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496.5168264363577</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C31" t="n">
-        <v>324.5442633152737</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D31" t="n">
-        <v>324.5442633152738</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E31" t="n">
-        <v>324.5442633152738</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>324.5442633152738</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>324.5442633152738</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
         <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J31" t="n">
         <v>159.7940416299866</v>
@@ -6643,28 +6643,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1155.589460012876</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>913.0255634586814</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y31" t="n">
-        <v>686.6827951484233</v>
+        <v>703.5688235070123</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793285</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>91.29483210793285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>101.155468562867</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1030.780516182144</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2035.066617601202</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3011.317676087903</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>3856.462326238715</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4564.741605396643</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4564.741605396643</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396643</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29483210793285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>91.29483210793285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1180.609778580803</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.982462688443</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1899.982462688443</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619903</v>
+        <v>559.3348718635248</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223605</v>
+        <v>397.5617912026651</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305854</v>
+        <v>397.5617912026651</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648932</v>
+        <v>397.5617912026651</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209078</v>
+        <v>235.8994994374498</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965941</v>
+        <v>235.8994994374498</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>169.7905543892524</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>406.3146683543554</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090881</v>
+        <v>771.0005024080421</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.182810137559</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1559.67083377286</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.095475211889</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893056</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893084</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2325.848712040481</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2227.098795711727</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>1993.958930397851</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1723.97396435838</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1452.461979426633</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394146</v>
+        <v>1187.80905805937</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721405</v>
+        <v>955.4446439653998</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>739.3013581153662</v>
       </c>
     </row>
     <row r="35">
@@ -6923,52 +6923,52 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J35" t="n">
-        <v>93.92643974529562</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K35" t="n">
-        <v>809.4347477207947</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>1739.059795340071</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="M35" t="n">
-        <v>2743.34589675913</v>
+        <v>1578.98113809702</v>
       </c>
       <c r="N35" t="n">
-        <v>3719.59695524583</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="O35" t="n">
-        <v>4564.741605396643</v>
+        <v>3400.376846734533</v>
       </c>
       <c r="P35" t="n">
-        <v>4564.741605396643</v>
+        <v>4108.65612589246</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
         <v>3767.744219562895</v>
@@ -6977,7 +6977,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
         <v>2662.400453630242</v>
@@ -7008,34 +7008,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793285</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="L36" t="n">
-        <v>843.9959247123975</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="M36" t="n">
-        <v>1899.982462688443</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="N36" t="n">
-        <v>1899.982462688443</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="O36" t="n">
-        <v>1899.982462688443</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="P36" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q36" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223612</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305861</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648936</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209083</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965943</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L37" t="n">
         <v>835.9566489090885</v>
@@ -7105,7 +7105,7 @@
         <v>1262.460299238252</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O37" t="n">
         <v>2066.015649511878</v>
@@ -7114,28 +7114,28 @@
         <v>2391.932716792692</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392366</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.693048850697</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X37" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y37" t="n">
         <v>1076.362316292602</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220165</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C38" t="n">
         <v>1887.72126111492</v>
@@ -7157,19 +7157,19 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J38" t="n">
         <v>453.8982909248284</v>
@@ -7181,25 +7181,25 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>2099.031646519604</v>
+        <v>2287.260417254947</v>
       </c>
       <c r="N38" t="n">
-        <v>2437.675861701817</v>
+        <v>3263.511475741648</v>
       </c>
       <c r="O38" t="n">
-        <v>3282.820511852629</v>
+        <v>4108.65612589246</v>
       </c>
       <c r="P38" t="n">
-        <v>3991.099791010557</v>
+        <v>4108.65612589246</v>
       </c>
       <c r="Q38" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T38" t="n">
         <v>4311.518642077325</v>
@@ -7214,10 +7214,10 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630241</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="O39" t="n">
-        <v>719.6392687871653</v>
+        <v>980.7761101194045</v>
       </c>
       <c r="P39" t="n">
         <v>1435.836985825663</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619907</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C40" t="n">
-        <v>786.293686222361</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305861</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648934</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557544</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090882</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7366,10 +7366,10 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X40" t="n">
         <v>1266.670133721406</v>
@@ -7397,16 +7397,16 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815411</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793279</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J41" t="n">
         <v>453.8982909248284</v>
@@ -7415,34 +7415,34 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>1169.406598900327</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>1461.424803215116</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N41" t="n">
-        <v>2437.675861701817</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O41" t="n">
-        <v>3282.820511852629</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.099791010557</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.18527051474</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V41" t="n">
         <v>3767.744219562895</v>
@@ -7482,34 +7482,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="O42" t="n">
-        <v>719.6392687871653</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P42" t="n">
-        <v>1435.836985825663</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q42" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619907</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223612</v>
+        <v>786.293686222361</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305861</v>
+        <v>659.0118642305858</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648936</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209081</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H43" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
@@ -7591,19 +7591,19 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
         <v>2201.842546468938</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850697</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
         <v>1473.199079394147</v>
@@ -7640,10 +7640,10 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7652,28 +7652,28 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>1169.406598900327</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>1461.424803215116</v>
+        <v>2743.34589675913</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701817</v>
+        <v>3719.596955245831</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.820511852629</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010557</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
         <v>4311.518642077325</v>
@@ -7719,28 +7719,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N45" t="n">
-        <v>1010.501184676971</v>
+        <v>294.303467638473</v>
       </c>
       <c r="O45" t="n">
-        <v>1899.982462688443</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="P45" t="n">
         <v>1899.982462688443</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H46" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
         <v>184.104015691004</v>
@@ -7979,25 +7979,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>551.425924785485</v>
       </c>
       <c r="L2" t="n">
-        <v>65.29234003482364</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>71.41374231622267</v>
       </c>
       <c r="O2" t="n">
-        <v>65.50726948884378</v>
+        <v>553.0522833466998</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>553.236685800907</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8061,25 +8061,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>294.9664557710893</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>538.7581045030037</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>537.0043522042173</v>
       </c>
       <c r="O3" t="n">
-        <v>42.6303257467342</v>
+        <v>538.8332137128979</v>
       </c>
       <c r="P3" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.75306611672156</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>89.15350681246652</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>47.7291985778011</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>331.2202630869685</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>318.3531679067979</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>330.2991800103697</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.0328952589437</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>315.3074544876789</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>315.4233073685751</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>98.5227558077745</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591743</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.450933819295</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.8269805500468</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>173.5394862087987</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>315.4074081527701</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2890213123321</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8453,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>480.3328471358044</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8529,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K9" t="n">
-        <v>465.1567191589065</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8617,7 +8617,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8693,25 +8693,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>221.9840360541318</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>967.5075822902257</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8781,13 +8781,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>657.8632399032651</v>
+        <v>522.7257725623842</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8930,7 +8930,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>273.4954316476181</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8945,10 +8945,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9018,16 +9018,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>575.0154519389184</v>
+        <v>522.7257725623842</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,16 +9176,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>179.9385644437099</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>578.3809836794701</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1074.760401518195</v>
+        <v>398.1526904575372</v>
       </c>
       <c r="O18" t="n">
-        <v>796.7117190241447</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>977.5208535927533</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9419,10 +9419,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9483,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>395.4385419568385</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9723,13 +9723,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9890,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9963,19 +9963,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>391.0586418711355</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10185,31 +10185,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>53.81684833958155</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>45.72483963817716</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>791.8596365713911</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10437,16 +10437,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>32.0781490182762</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>451.1429186536662</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,10 +10601,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,19 +10659,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10680,13 +10680,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>227.5613343492732</v>
       </c>
       <c r="N38" t="n">
-        <v>379.3444866548631</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8632399032651</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11063,13 +11063,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>332.3991460456832</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11151,7 +11151,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>657.8632399032651</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
@@ -11160,7 +11160,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>332.3991460456832</v>
+        <v>688.2537378888522</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11312,13 +11312,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>949.8342934347922</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>172.2155341347414</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>42.61286918175936</v>
       </c>
       <c r="U13" t="n">
-        <v>26.86140143470191</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.383946836591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>0.08811455854389294</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>14.84107679896647</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>356.3839468365915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.86140143470169</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>128.2338769871908</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>356.383946836592</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.759898196019236</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.86140143470173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>63.2026184757821</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.8410767989665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>243.6081953370453</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24853,7 +24853,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>21.11005397370255</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>138.5826379013607</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5861175088749</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.4486361530529</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>154.4969123730881</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150471</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>60.57379220496803</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-2.486899575160351e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>599779.9895403696</v>
+        <v>613417.0138095565</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>607433.8130873232</v>
+        <v>614249.0611848847</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>612304.0737549928</v>
+        <v>614249.0611848847</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>592346.2101864315</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>592346.2101864317</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>592346.2101864315</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>592346.2101864315</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>622870.7839472534</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>604713.3900118521</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>604713.3900118516</v>
+        <v>604713.3900118517</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623467.5200824451</v>
+        <v>610635.4017191458</v>
       </c>
     </row>
     <row r="13">
@@ -26314,46 +26314,46 @@
         <v>422270.9343080933</v>
       </c>
       <c r="C2" t="n">
+        <v>422270.9343080931</v>
+      </c>
+      <c r="D2" t="n">
+        <v>422270.9343080932</v>
+      </c>
+      <c r="E2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="F2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="G2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="H2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="I2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="J2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407472.0422746488</v>
+      </c>
+      <c r="L2" t="n">
+        <v>411660.7822627358</v>
+      </c>
+      <c r="M2" t="n">
+        <v>422270.9343080932</v>
+      </c>
+      <c r="N2" t="n">
         <v>422270.9343080929</v>
       </c>
-      <c r="D2" t="n">
+      <c r="O2" t="n">
         <v>422270.934308093</v>
       </c>
-      <c r="E2" t="n">
-        <v>401236.6283511898</v>
-      </c>
-      <c r="F2" t="n">
-        <v>401236.6283511901</v>
-      </c>
-      <c r="G2" t="n">
-        <v>401236.6283511898</v>
-      </c>
-      <c r="H2" t="n">
-        <v>401236.6283511898</v>
-      </c>
-      <c r="I2" t="n">
-        <v>421803.5459231294</v>
-      </c>
-      <c r="J2" t="n">
-        <v>407472.0422746493</v>
-      </c>
-      <c r="K2" t="n">
-        <v>407472.0422746491</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>422270.9343080928</v>
-      </c>
-      <c r="M2" t="n">
-        <v>422270.9343080928</v>
-      </c>
-      <c r="N2" t="n">
-        <v>422270.9343080928</v>
-      </c>
-      <c r="O2" t="n">
-        <v>422270.9343080929</v>
-      </c>
-      <c r="P2" t="n">
-        <v>422270.9343080927</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797272</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943999</v>
+        <v>13105.84347019895</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447324</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596184</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826563</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085289</v>
+        <v>134919.6914542163</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710407</v>
+        <v>10440.51617310201</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410369999</v>
+        <v>8077.990108497657</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819144</v>
+        <v>166235.4618077718</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303732.4552423392</v>
+        <v>165205.159663787</v>
       </c>
       <c r="C4" t="n">
-        <v>225983.5669316686</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>60686.37977445555</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>60686.37977445555</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>60686.37977445555</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="H4" t="n">
-        <v>60686.37977445555</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
-        <v>62177.00353903255</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="L4" t="n">
-        <v>63198.41887740586</v>
+        <v>32754.86370165162</v>
       </c>
       <c r="M4" t="n">
-        <v>63198.41887740586</v>
+        <v>63198.41887740587</v>
       </c>
       <c r="N4" t="n">
         <v>63198.41887740587</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863308</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578421</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26497,19 +26497,19 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482541</v>
+        <v>78598.9478764688</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73778.98520903771</v>
+        <v>19275.99626594609</v>
       </c>
       <c r="C6" t="n">
-        <v>59304.44338120019</v>
+        <v>184965.7639947306</v>
       </c>
       <c r="D6" t="n">
-        <v>131741.0470382952</v>
+        <v>198071.6074649297</v>
       </c>
       <c r="E6" t="n">
-        <v>69196.3512012244</v>
+        <v>84499.30581148315</v>
       </c>
       <c r="F6" t="n">
-        <v>273598.0646608431</v>
+        <v>300238.6623681235</v>
       </c>
       <c r="G6" t="n">
-        <v>273598.0646608429</v>
+        <v>300238.6623681236</v>
       </c>
       <c r="H6" t="n">
-        <v>273598.0646608429</v>
+        <v>300238.6623681237</v>
       </c>
       <c r="I6" t="n">
-        <v>262670.7201734214</v>
+        <v>300238.6623681235</v>
       </c>
       <c r="J6" t="n">
-        <v>257994.8733794552</v>
+        <v>165318.9709139072</v>
       </c>
       <c r="K6" t="n">
-        <v>232140.7286032038</v>
+        <v>289798.1461950213</v>
       </c>
       <c r="L6" t="n">
-        <v>250330.8508621615</v>
+        <v>292192.3938449268</v>
       </c>
       <c r="M6" t="n">
-        <v>139156.1939839471</v>
+        <v>120453.8531580902</v>
       </c>
       <c r="N6" t="n">
+        <v>286689.3149658616</v>
+      </c>
+      <c r="O6" t="n">
+        <v>286689.3149658617</v>
+      </c>
+      <c r="P6" t="n">
         <v>286689.3149658615</v>
-      </c>
-      <c r="O6" t="n">
-        <v>286689.3149658616</v>
-      </c>
-      <c r="P6" t="n">
-        <v>286689.3149658614</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263964</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543456</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701756</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215259</v>
+        <v>40.56648912491846</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059886</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352697</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674966</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215259</v>
+        <v>40.56648912491846</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229246</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>584.9575882335665</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215259</v>
+        <v>40.56648912491846</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059886</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,10 +27439,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>317.2923775951989</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.8728933608745</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>74.68524876704814</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72602217249382</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4398532622953</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,22 +27537,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>142.1365273570535</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>133.5672950116773</v>
+        <v>0.962233851250005</v>
       </c>
       <c r="E4" t="n">
-        <v>139.7812778236874</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27588,22 +27588,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>127.9647193381481</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>1.981474086359924</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>109.9698909350861</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>80.80383915666005</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>47.6914986278473</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>121.1081271253951</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -27831,16 +27831,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>176.8406509571243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>385.4281338467633</v>
+        <v>162.8640785093685</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28059,16 +28059,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>157.3132665360056</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562207</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263976</v>
       </c>
       <c r="H35" t="n">
         <v>35.67460137263964</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="L2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>34.13411948177664</v>
       </c>
       <c r="O2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,25 +34781,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>272.4513690568597</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="O3" t="n">
-        <v>19.45843602451198</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="P3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>28.11631013281968</v>
+        <v>68.18885235975452</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>26.98029760220071</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>292.9082206543456</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>281.0735450723519</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>292.9082206543456</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9082206543456</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>292.9082206543456</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>292.9082206543456</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>75.42597529544652</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543456</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.7038955303165</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.9082206543456</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>152.7905852331983</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>292.9082206543456</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>292.9082206543456</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K9" t="n">
-        <v>442.7574853255732</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,7 +35337,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35413,25 +35413,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>184.5527731546999</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>930.2279594557797</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>634.6913501810429</v>
+        <v>499.553882840162</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>235.1833892149951</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35665,10 +35665,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>551.8435622166962</v>
+        <v>499.553882840162</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,16 +35896,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>142.5476050876858</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>540.8056218692387</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1053.417373304653</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="O18" t="n">
-        <v>773.5398293019225</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>940.2412307583072</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36139,10 +36139,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>358.1589191223925</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36443,13 +36443,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36610,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>369.2878006663069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="N30" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>9.960238843367817</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391037</v>
+        <v>68.1695363468928</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.913246429397</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471582</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722391</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760623</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333626</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324918</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747755</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.658189532689673</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>413.7116557542344</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,10 +37321,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,22 +37549,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>190.1300714498414</v>
       </c>
       <c r="N38" t="n">
-        <v>342.0648638204171</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>634.6913501810429</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37783,13 +37783,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>294.9678831462513</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>634.6913501810429</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
@@ -37880,7 +37880,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>294.9678831462513</v>
+        <v>650.8224749894205</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38032,13 +38032,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,13 +38105,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>928.4912652212506</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O45" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
